--- a/data/encounters/suspected_mortality.xlsx
+++ b/data/encounters/suspected_mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/m_michelangeli_griffith_edu_au/Documents/Documents/Projects/pharma_LOF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusMichelangeli\GIT projects\Git_repo\drugged_lakes_griffith_repo\drugged_lakes\data\encounters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DBC3621B996ACCB48931FC1903E661AF280694D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB5CBA1-E3CF-4269-98A2-754EEBA86CED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9441D-9AA0-4DB1-9120-D90FB99E11FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suspected_mortality" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="5">
-        <v>45570</v>
+        <v>44839</v>
       </c>
       <c r="F28" s="6">
         <v>44842</v>
@@ -1858,7 +1858,7 @@
         <v>63</v>
       </c>
       <c r="P28" s="5">
-        <v>45570</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
